--- a/biology/Botanique/Forêt_de_Moulière/Forêt_de_Moulière.xlsx
+++ b/biology/Botanique/Forêt_de_Moulière/Forêt_de_Moulière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mouli%C3%A8re</t>
+          <t>Forêt_de_Moulière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Moulière est un massif forestier de la Vienne, en France. Ses 6 800 hectares en font une des plus grandes forêts du nord de la région Nouvelle-Aquitaine, derrière la forêt de la Double, la forêt d'Horte (environ 10 000 hectares chacune) et la forêt domaniale de la Coubre (environ 8 000 hectares).
-Tirant son nom des pierres meulières extraites du sol argileux de la region, la forêt de Moulière est un important massif boisé situé à l’est de Poitiers, sur les communes de Bignoux, Bonneuil-Matours, la Chapelle-Moulière, Dissay, Liniers, Montamisé, Saint-Cyr, Saint-Georges-lès-Baillargeaux. C’est une zone d’intérêt écologique, faunistique et floristique (ZNIEFF) [2]. La forêt occupe un plateau d’une altitude moyenne de 120 mètres dont les sols sont acides.
+Tirant son nom des pierres meulières extraites du sol argileux de la region, la forêt de Moulière est un important massif boisé situé à l’est de Poitiers, sur les communes de Bignoux, Bonneuil-Matours, la Chapelle-Moulière, Dissay, Liniers, Montamisé, Saint-Cyr, Saint-Georges-lès-Baillargeaux. C’est une zone d’intérêt écologique, faunistique et floristique (ZNIEFF) . La forêt occupe un plateau d’une altitude moyenne de 120 mètres dont les sols sont acides.
 Sur ce type de substrat et compte tenu du climat océanique avec des étés tempérés de cette région, la forêt est essentiellement une chênaie calcifuge atlantique à chênes sessiles, avec une présence dispersée du hêtre. Les combes et vallées sèches, comme la vallée de Charassé, sont recouvertes par une chênaie-charmaie ou une chênaie-frênaie. L’homme est aussi intervenu et a introduit des conifères dans de nombreuses parcelles. Certains secteurs de la forêt possèdent cependant encore de remarquables peuplements de futaie de chênes âgée de plus de 120 ans. 
 Au milieu de la forêt se trouve La maison de la forêt ainsi que Les chalets du grand recoin pour profiter de la nature. Avec aussi restauration rapide sur place et divers centre équestres.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mouli%C3%A8re</t>
+          <t>Forêt_de_Moulière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La forêt de Moulière abrite de nombreuses espèces végétales et animales, rares ou menacées, et est complémentaire des landes du Pinail situées juste au nord. Elle compte notamment de nombreuses espèces d'oiseaux : les rapaces et les pics sont, ainsi, très bien représentés, avec des espèces protégées comme le pic noir et le pic mar, cette dernière espèce étant inféodée aux vielles chênaies riches en arbres sénescents et dépérissants.
 Un bon observateur pourra découvrir :
@@ -570,7 +584,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mouli%C3%A8re</t>
+          <t>Forêt_de_Moulière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -588,7 +602,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moulière, la forêt des pierres, par Michel Granger.</t>
         </is>
@@ -600,7 +616,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mouli%C3%A8re</t>
+          <t>Forêt_de_Moulière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +634,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Balade entre Pinail et Moulière (2007), documentaire de Thierry Mauvignier
 La Légende des Seigneurs Assassins (2021) D’après la légende de la Tombe à l’Enfant en forêt de Moulière dans la Vienne
@@ -633,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mouli%C3%A8re</t>
+          <t>Forêt_de_Moulière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +669,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Coordonnées prises sous Géoportail
